--- a/figs/survey-topcitations.xlsx
+++ b/figs/survey-topcitations.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\i866050\OneDrive - Associacao Antonio Vieira\2018-12 Dissertacao\tex\figs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{0AAD0E99-8AA4-4EBC-9677-2B9C90A69996}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{0F521B2C-CAEB-4591-BAE2-D6B6375E3A43}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9048" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1804,6 +1804,11 @@
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <mruColors>
+      <color rgb="FFFFCC99"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -2086,35 +2091,9 @@
               <c:symbol val="circle"/>
               <c:size val="5"/>
               <c:spPr>
-                <a:gradFill rotWithShape="1">
-                  <a:gsLst>
-                    <a:gs pos="0">
-                      <a:schemeClr val="accent1">
-                        <a:shade val="76000"/>
-                        <a:tint val="70000"/>
-                        <a:satMod val="100000"/>
-                        <a:lumMod val="110000"/>
-                      </a:schemeClr>
-                    </a:gs>
-                    <a:gs pos="50000">
-                      <a:schemeClr val="accent1">
-                        <a:shade val="76000"/>
-                        <a:tint val="75000"/>
-                        <a:satMod val="101000"/>
-                        <a:lumMod val="105000"/>
-                      </a:schemeClr>
-                    </a:gs>
-                    <a:gs pos="100000">
-                      <a:schemeClr val="accent1">
-                        <a:shade val="76000"/>
-                        <a:tint val="82000"/>
-                        <a:satMod val="104000"/>
-                        <a:lumMod val="105000"/>
-                      </a:schemeClr>
-                    </a:gs>
-                  </a:gsLst>
-                  <a:lin ang="2700000" scaled="0"/>
-                </a:gradFill>
+                <a:solidFill>
+                  <a:srgbClr val="FFCC99"/>
+                </a:solidFill>
                 <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
                   <a:solidFill>
                     <a:schemeClr val="accent1">
@@ -2139,8 +2118,8 @@
               <c:idx val="5"/>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="-3.1630047816350065E-2"/>
-                  <c:y val="-5.9375072584953427E-2"/>
+                  <c:x val="5.0575832109036687E-3"/>
+                  <c:y val="7.0389984437785645E-3"/>
                 </c:manualLayout>
               </c:layout>
               <c:spPr>
@@ -2157,12 +2136,9 @@
                 <a:lstStyle/>
                 <a:p>
                   <a:pPr>
-                    <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:defRPr sz="1200" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                       <a:solidFill>
-                        <a:schemeClr val="accent2">
-                          <a:lumMod val="60000"/>
-                          <a:lumOff val="40000"/>
-                        </a:schemeClr>
+                        <a:srgbClr val="FFCC99"/>
                       </a:solidFill>
                       <a:latin typeface="+mn-lt"/>
                       <a:ea typeface="+mn-ea"/>
@@ -2200,12 +2176,9 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:defRPr sz="1000" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
-                      <a:schemeClr val="accent2">
-                        <a:lumMod val="60000"/>
-                        <a:lumOff val="40000"/>
-                      </a:schemeClr>
+                      <a:srgbClr val="FFCC99"/>
                     </a:solidFill>
                     <a:latin typeface="+mn-lt"/>
                     <a:ea typeface="+mn-ea"/>
@@ -2586,16 +2559,6 @@
                   <a:rPr lang="pt-BR" sz="1050"/>
                   <a:t>Percentual acumulado</a:t>
                 </a:r>
-              </a:p>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="1050"/>
-                </a:pPr>
-                <a:r>
-                  <a:rPr lang="pt-BR" sz="1050" baseline="0"/>
-                  <a:t>do total</a:t>
-                </a:r>
-                <a:endParaRPr lang="pt-BR" sz="1050"/>
               </a:p>
             </c:rich>
           </c:tx>
@@ -8370,8 +8333,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:C21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView tabSelected="1" topLeftCell="C1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="U14" sqref="U14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
